--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H200_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4817073170731707</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3030151316740149</v>
+        <v>0.2545903174538525</v>
       </c>
       <c r="J2" t="n">
-        <v>4044.977273380101</v>
+        <v>3383.881369582423</v>
       </c>
       <c r="K2" t="n">
-        <v>21430912.5692973</v>
+        <v>14835101.48133113</v>
       </c>
       <c r="L2" t="n">
-        <v>4629.353364056075</v>
+        <v>3851.636208331614</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.042745607041657</v>
+        <v>-1.798506183520637</v>
       </c>
     </row>
   </sheetData>
